--- a/data/indices/NIFTY 50_losers.xlsx
+++ b/data/indices/NIFTY 50_losers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>To Year High Profit</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Total Year Up</t>
         </is>
       </c>
@@ -492,7 +497,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1010.5</v>
+        <v>996</v>
       </c>
       <c r="E2" t="n">
         <v>1694.5</v>
@@ -501,10 +506,13 @@
         <v>926.45</v>
       </c>
       <c r="G2" t="n">
-        <v>40.36588964296253</v>
+        <v>41.22159929182649</v>
       </c>
       <c r="H2" t="n">
-        <v>9.072265097954556</v>
+        <v>70.13052208835342</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.507150952560848</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>794.7</v>
+        <v>789</v>
       </c>
       <c r="E3" t="n">
         <v>1179</v>
@@ -533,10 +541,13 @@
         <v>717.7</v>
       </c>
       <c r="G3" t="n">
-        <v>32.59541984732824</v>
+        <v>33.07888040712468</v>
       </c>
       <c r="H3" t="n">
-        <v>10.72871673401144</v>
+        <v>49.42965779467681</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.934513027727455</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +567,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4223.25</v>
+        <v>4240.05</v>
       </c>
       <c r="E4" t="n">
         <v>6246.25</v>
@@ -565,74 +576,83 @@
         <v>3929.85</v>
       </c>
       <c r="G4" t="n">
-        <v>32.38743245947568</v>
+        <v>32.11847108264959</v>
       </c>
       <c r="H4" t="n">
-        <v>7.465933814267722</v>
+        <v>47.31547977028572</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.893431046986543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE021A01026</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Paints</t>
+          <t>Trading - Minerals</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2347.1</v>
+        <v>2562</v>
       </c>
       <c r="E5" t="n">
-        <v>3401.25</v>
+        <v>3743.9</v>
       </c>
       <c r="F5" t="n">
-        <v>2256.5</v>
+        <v>2025</v>
       </c>
       <c r="G5" t="n">
-        <v>30.99301727306137</v>
+        <v>31.56868506103262</v>
       </c>
       <c r="H5" t="n">
-        <v>4.015067582539333</v>
+        <v>46.13192818110852</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26.51851851851852</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE021A01026</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Trading - Minerals</t>
+          <t>Paints</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2584.1</v>
+        <v>2333.8</v>
       </c>
       <c r="E6" t="n">
-        <v>3743.9</v>
+        <v>3401.25</v>
       </c>
       <c r="F6" t="n">
-        <v>2025</v>
+        <v>2256.5</v>
       </c>
       <c r="G6" t="n">
-        <v>30.97839151686744</v>
+        <v>31.3840499816244</v>
       </c>
       <c r="H6" t="n">
-        <v>27.60987654320988</v>
+        <v>45.73870940097693</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.425659206736098</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +672,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9044.1</v>
+        <v>8965</v>
       </c>
       <c r="E7" t="n">
         <v>12774</v>
@@ -661,10 +681,13 @@
         <v>6604</v>
       </c>
       <c r="G7" t="n">
-        <v>29.19915453264444</v>
+        <v>29.81838108658213</v>
       </c>
       <c r="H7" t="n">
-        <v>36.94881889763779</v>
+        <v>42.48745119910764</v>
+      </c>
+      <c r="I7" t="n">
+        <v>35.75105996365839</v>
       </c>
     </row>
     <row r="8">
@@ -684,7 +707,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>394.3</v>
+        <v>394.1</v>
       </c>
       <c r="E8" t="n">
         <v>543.55</v>
@@ -693,74 +716,83 @@
         <v>368</v>
       </c>
       <c r="G8" t="n">
-        <v>27.45837549443473</v>
+        <v>27.49517063747584</v>
       </c>
       <c r="H8" t="n">
-        <v>7.146739130434776</v>
+        <v>37.92184724689163</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.092391304347823</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE742F01042</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tea &amp; Coffee</t>
+          <t>Port &amp; Port services</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>934.75</v>
+        <v>1197.8</v>
       </c>
       <c r="E9" t="n">
-        <v>1256.44</v>
+        <v>1621.4</v>
       </c>
       <c r="F9" t="n">
-        <v>882.9</v>
+        <v>995.65</v>
       </c>
       <c r="G9" t="n">
-        <v>25.60329184043807</v>
+        <v>26.12557049463427</v>
       </c>
       <c r="H9" t="n">
-        <v>5.872692264129586</v>
+        <v>35.36483553180834</v>
+      </c>
+      <c r="I9" t="n">
+        <v>20.3033194395621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE213A01029</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Oil Exploration &amp; Production</t>
+          <t>Tea &amp; Coffee</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>257.08</v>
+        <v>936</v>
       </c>
       <c r="E10" t="n">
-        <v>345</v>
+        <v>1256.44</v>
       </c>
       <c r="F10" t="n">
-        <v>204.5</v>
+        <v>882.9</v>
       </c>
       <c r="G10" t="n">
-        <v>25.48405797101449</v>
+        <v>25.50380439973258</v>
       </c>
       <c r="H10" t="n">
-        <v>25.71149144254279</v>
+        <v>34.23504273504274</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.014271151885842</v>
       </c>
     </row>
     <row r="11">
@@ -780,7 +812,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4833.25</v>
+        <v>4839.85</v>
       </c>
       <c r="E11" t="n">
         <v>6469.9</v>
@@ -789,10 +821,13 @@
         <v>4641</v>
       </c>
       <c r="G11" t="n">
-        <v>25.29637243234053</v>
+        <v>25.19436158209554</v>
       </c>
       <c r="H11" t="n">
-        <v>4.142426201249738</v>
+        <v>33.67976280256617</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.284636931695762</v>
       </c>
     </row>
     <row r="12">
@@ -812,7 +847,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1447.35</v>
+        <v>1450</v>
       </c>
       <c r="E12" t="n">
         <v>1936</v>
@@ -821,42 +856,83 @@
         <v>1307.7</v>
       </c>
       <c r="G12" t="n">
-        <v>25.24018595041323</v>
+        <v>25.10330578512396</v>
       </c>
       <c r="H12" t="n">
-        <v>10.67905482908924</v>
+        <v>33.51724137931033</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.88170069587826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE742F01042</t>
+          <t>INE081A01020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Port &amp; Port services</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1215.7</v>
+        <v>138.33</v>
       </c>
       <c r="E13" t="n">
-        <v>1621.4</v>
+        <v>184.6</v>
       </c>
       <c r="F13" t="n">
-        <v>995.65</v>
+        <v>128.2</v>
       </c>
       <c r="G13" t="n">
-        <v>25.02158628345874</v>
+        <v>25.06500541711808</v>
       </c>
       <c r="H13" t="n">
-        <v>22.10113995882088</v>
+        <v>33.44899877105472</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.901716068642761</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>INE213A01029</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ONGC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Oil Exploration &amp; Production</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>258.65</v>
+      </c>
+      <c r="E14" t="n">
+        <v>345</v>
+      </c>
+      <c r="F14" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25.02898550724638</v>
+      </c>
+      <c r="H14" t="n">
+        <v>33.38488304658807</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26.47921760391196</v>
       </c>
     </row>
   </sheetData>
